--- a/data/output/FV2410_FV2404/REMADV/33003.xlsx
+++ b/data/output/FV2410_FV2404/REMADV/33003.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="237">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2231" uniqueCount="237">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -861,6 +861,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U101" totalsRowShown="0">
+  <autoFilter ref="A1:U101"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1150,7 +1180,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5872,5 +5905,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/REMADV/33003.xlsx
+++ b/data/output/FV2410_FV2404/REMADV/33003.xlsx
@@ -1587,7 +1587,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2243,7 +2243,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -2381,7 +2381,7 @@
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="2" t="s">
+      <c r="M19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N19" s="2" t="s">
@@ -2679,7 +2679,7 @@
         <v>221</v>
       </c>
       <c r="L25" s="4"/>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N25" s="2" t="s">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="2" t="s">
+      <c r="M29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N29" s="2" t="s">
@@ -3231,7 +3231,7 @@
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="4"/>
-      <c r="M36" s="2" t="s">
+      <c r="M36" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N36" s="2" t="s">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N42" s="2" t="s">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4121,7 +4121,7 @@
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -4271,7 +4271,7 @@
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -4421,7 +4421,7 @@
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="4"/>
-      <c r="M60" s="2" t="s">
+      <c r="M60" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N60" s="2" t="s">
@@ -4627,7 +4627,7 @@
         <v>226</v>
       </c>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -4779,7 +4779,7 @@
         <v>228</v>
       </c>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -5567,7 +5567,7 @@
         <v>230</v>
       </c>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -5721,7 +5721,7 @@
         <v>232</v>
       </c>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -5875,7 +5875,7 @@
         <v>234</v>
       </c>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -6029,7 +6029,7 @@
         <v>236</v>
       </c>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -6179,7 +6179,7 @@
       </c>
       <c r="K94" s="2"/>
       <c r="L94" s="4"/>
-      <c r="M94" s="2" t="s">
+      <c r="M94" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N94" s="2"/>
@@ -6267,7 +6267,7 @@
       </c>
       <c r="K96" s="2"/>
       <c r="L96" s="4"/>
-      <c r="M96" s="2" t="s">
+      <c r="M96" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N96" s="2"/>
@@ -6405,7 +6405,7 @@
       </c>
       <c r="K99" s="2"/>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N99" s="2"/>
